--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_aemmprty\Atcoder-Regular-Contest-Practice-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4CFDF70-7462-4147-8DF1-4ECF909DF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1ECBC8-9AF7-4656-910F-463E6675A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{57323EB7-FA06-4C15-926F-991384612FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>C. Fair Elevator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,15 +128,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSP-S T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DP，模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOIP T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOIP T2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DP，思维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,12 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,6 +505,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,7 +844,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -841,7 +858,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -864,70 +881,78 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="26">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>2009</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="6">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>2251</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>2824</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>3213</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -950,62 +975,62 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="26">
         <v>105</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>1964</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>1871</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>2615</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>3231</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1028,62 +1053,62 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="26">
         <v>106</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>1225</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>1988</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>2825</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>2755</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1106,62 +1131,62 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="26">
         <v>107</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>1223</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>2099</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>2604</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>3130</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1184,46 +1209,46 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="26">
         <v>108</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1246,51 +1271,51 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+      <c r="B33" s="26">
         <v>109</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_aemmprty\Atcoder-Regular-Contest-Practice-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1ECBC8-9AF7-4656-910F-463E6675A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF11E76-0FA2-4B5A-9CC3-1C28B20BAF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{57323EB7-FA06-4C15-926F-991384612FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>C. Fair Elevator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DP，模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOIP T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,7 +143,19 @@
     <t>AC</t>
   </si>
   <si>
-    <t>DP，思维</t>
+    <t>NOIP T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力 计数 DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP 模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP 思维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,16 +515,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +858,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -881,7 +895,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="26">
+      <c r="B3" s="28">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -891,7 +905,7 @@
         <v>2009</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>23</v>
@@ -900,11 +914,11 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -912,42 +926,52 @@
         <v>2251</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="9">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>28</v>
+      <c r="H4" s="27" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="12">
         <v>2824</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="15">
         <v>3213</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -975,7 +999,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
+      <c r="B9" s="28">
         <v>105</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -990,7 +1014,7 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1027,7 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1040,7 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="21" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1077,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="26">
+      <c r="B15" s="28">
         <v>106</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -1068,7 +1092,7 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +1105,7 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1118,7 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +1155,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="28">
         <v>107</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -1146,7 +1170,7 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1183,7 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +1196,7 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1233,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
+      <c r="B27" s="28">
         <v>108</v>
       </c>
       <c r="C27" s="1"/>
@@ -1220,7 +1244,7 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="1"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -1229,7 +1253,7 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="2"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1238,7 +1262,7 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="3"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1271,7 +1295,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
+      <c r="B33" s="28">
         <v>109</v>
       </c>
       <c r="C33" s="1"/>
@@ -1282,7 +1306,7 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="1"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1291,7 +1315,7 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="2"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -1300,7 +1324,7 @@
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="3"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_aemmprty\Atcoder-Regular-Contest-Practice-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF11E76-0FA2-4B5A-9CC3-1C28B20BAF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349674C2-0BA4-40C5-9380-BB210E9D983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{57323EB7-FA06-4C15-926F-991384612FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>C. Fair Elevator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>DP 思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP 笛卡尔树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,39 +462,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,16 +501,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,7 +844,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -872,7 +858,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -895,7 +881,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
+      <c r="B3" s="22">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -907,76 +893,82 @@
       <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="6">
         <v>9.2100000000000009</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>2251</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>2824</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="9">
         <v>3213</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9.23</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -999,62 +991,62 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
+      <c r="B9" s="22">
         <v>105</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>1964</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>1871</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>2615</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="9">
         <v>3231</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1077,62 +1069,62 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
+      <c r="B15" s="22">
         <v>106</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6">
         <v>1225</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>1988</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>2825</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="9">
         <v>2755</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1155,62 +1147,62 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="22">
         <v>107</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="6">
         <v>1223</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>2099</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>2604</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="9">
         <v>3130</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1233,46 +1225,46 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
+      <c r="B27" s="22">
         <v>108</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1295,42 +1287,42 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
+      <c r="B33" s="22">
         <v>109</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_aemmprty\Atcoder-Regular-Contest-Practice-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349674C2-0BA4-40C5-9380-BB210E9D983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A32D52-DCBA-4D53-B94B-85E204F48B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{57323EB7-FA06-4C15-926F-991384612FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>C. Fair Elevator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>DP 笛卡尔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. Near Assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C. Not Argmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. Keep Perfectly Matched</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. Ascendant Descendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Sum of Minimum Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维 分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF6DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -440,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,16 +537,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,8 +566,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFF6DD"/>
+      <color rgb="FFFFC41D"/>
       <color rgb="FF66FFCC"/>
-      <color rgb="FFFFC41D"/>
       <color rgb="FFFFBE05"/>
       <color rgb="FFE6AA00"/>
     </mruColors>
@@ -841,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE7D18E-70F1-44B4-95B9-708BD7D850BB}">
-  <dimension ref="B1:H36"/>
+  <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -854,10 +894,14 @@
     <col min="6" max="6" width="5.77734375" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
@@ -879,9 +923,30 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="22">
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="24">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -902,9 +967,30 @@
       <c r="H3" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
+      <c r="J3" s="24">
+        <v>183</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="26">
+        <v>2118</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="26">
+        <v>9.23</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -923,9 +1009,22 @@
       <c r="H4" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2018</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="6">
+        <v>9.23</v>
+      </c>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -944,9 +1043,22 @@
       <c r="H5" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2880</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="7">
+        <v>9.23</v>
+      </c>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,18 +1068,45 @@
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="9">
         <v>9.23</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="24"/>
+      <c r="K6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3331</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="8">
+        <v>9.23</v>
+      </c>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="25"/>
+      <c r="K7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="9">
+        <v>3994</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="9">
+        <v>9.23</v>
+      </c>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1129,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="24">
         <v>105</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1005,8 +1144,8 @@
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1018,8 +1157,8 @@
       <c r="G10" s="7"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1031,8 +1170,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+    <row r="12" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -1040,12 +1179,12 @@
         <v>3231</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1207,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="24">
         <v>106</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1083,8 +1222,8 @@
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1236,7 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1249,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15" t="s">
         <v>18</v>
       </c>
@@ -1118,9 +1257,9 @@
         <v>2755</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="24"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1147,7 +1286,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
+      <c r="B21" s="24">
         <v>107</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1162,7 +1301,7 @@
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1175,7 +1314,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1188,7 +1327,7 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1196,9 +1335,9 @@
         <v>3130</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1225,7 +1364,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="22">
+      <c r="B27" s="24">
         <v>108</v>
       </c>
       <c r="C27" s="1"/>
@@ -1236,7 +1375,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1245,7 +1384,7 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="2"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1254,13 +1393,13 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1287,7 +1426,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="22">
+      <c r="B33" s="24">
         <v>109</v>
       </c>
       <c r="C33" s="1"/>
@@ -1298,7 +1437,7 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="1"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1307,7 +1446,7 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1316,16 +1455,17 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="24"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B9:B12"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_aemmprty\Atcoder-Regular-Contest-Practice-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A32D52-DCBA-4D53-B94B-85E204F48B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05745B62-43C4-4111-B729-0E9BC5C5B495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{57323EB7-FA06-4C15-926F-991384612FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>C. Fair Elevator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DP 笛卡尔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B. Near Assignment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,14 @@
   </si>
   <si>
     <t>思维 分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间DP 笛卡尔树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,19 +547,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,7 +888,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -893,7 +897,7 @@
     <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="6.5546875" customWidth="1"/>
@@ -946,7 +950,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
+      <c r="B3" s="27">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -967,30 +971,30 @@
       <c r="H3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="27">
         <v>183</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="26">
+        <v>31</v>
+      </c>
+      <c r="L3" s="24">
         <v>2118</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="24">
         <v>9.23</v>
       </c>
-      <c r="P3" s="27" t="s">
-        <v>37</v>
+      <c r="P3" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1009,22 +1013,28 @@
       <c r="H4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="6">
         <v>2018</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="16"/>
+      <c r="M4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="O4" s="6">
         <v>9.23</v>
       </c>
-      <c r="P4" s="17"/>
+      <c r="P4" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1043,9 +1053,9 @@
       <c r="H5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="7">
         <v>2880</v>
@@ -1058,7 +1068,7 @@
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1075,11 +1085,11 @@
         <v>9.23</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="28" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="L6" s="8">
         <v>3331</v>
@@ -1092,9 +1102,9 @@
       <c r="P6" s="21"/>
     </row>
     <row r="7" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="25"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="9">
         <v>3994</v>
@@ -1130,7 +1140,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+      <c r="B9" s="27">
         <v>105</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1145,7 +1155,7 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1168,7 @@
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1181,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
@@ -1208,7 +1218,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="B15" s="27">
         <v>106</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1223,7 +1233,7 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1246,7 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1249,7 +1259,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="15" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1296,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+      <c r="B21" s="27">
         <v>107</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1301,7 +1311,7 @@
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1324,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1327,7 +1337,7 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1374,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+      <c r="B27" s="27">
         <v>108</v>
       </c>
       <c r="C27" s="1"/>
@@ -1375,7 +1385,7 @@
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1384,7 +1394,7 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="2"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1393,7 +1403,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1426,7 +1436,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="24">
+      <c r="B33" s="27">
         <v>109</v>
       </c>
       <c r="C33" s="1"/>
@@ -1437,7 +1447,7 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="1"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1446,7 +1456,7 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="2"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1455,7 +1465,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DE_aemmprty\Atcoder-Regular-Contest-Practice-Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05745B62-43C4-4111-B729-0E9BC5C5B495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEE7A26-1B1D-419E-AD12-3CB27D2017D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{57323EB7-FA06-4C15-926F-991384612FFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>C. Fair Elevator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,14 @@
   </si>
   <si>
     <t>区间DP 笛卡尔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOIP T3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树的重心 DS 思维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +896,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -901,7 +909,7 @@
     <col min="11" max="11" width="31.6640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="6.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1060,12 +1068,18 @@
       <c r="L5" s="7">
         <v>2880</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="18"/>
+      <c r="M5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="O5" s="7">
         <v>9.23</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28"/>
